--- a/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CA05DE-257F-45CE-A29F-AE23B04A84ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158EC374-C7BE-45C5-97F9-D0502CCB1551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="4665" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13350" yWindow="7155" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>2.5000000000000001E-2</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="3">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4831693396692116</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3343782849264372</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4188437606267812</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3400465610527759</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2196864772648461</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0242505060007914</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93685747669187891</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86589363926728224</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83967814076405478</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73730479120212744</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70319590652107067</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71516282536461651</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71021288547562844</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69313336196643593</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83105253992241779</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91571751422173753</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94723275663302431</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1025606636392795</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0380660963170671</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0411075596514552</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1394791311051107</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1692587260964022</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0765781091554287</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2662681072166684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977355E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3240798496591761E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8341246820372782E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21387974554805952</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30352887641332932</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34807446173288503</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1189092084251383</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6240320635669046E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339202E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382385E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811911E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.169753768399932</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3572404371584697E-6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4785879405081879E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5596213674872121</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3899773801317052</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3097019328862598</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4220902280560073</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1841616284124719</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0451535775518279</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90011796780200126</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79992079056120358</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81545665593432237</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76679698285021258</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72494423352687698</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70793895844174171</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6696292920198782</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67313913037125028</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82265806982219136</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95309373929201247</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98629390123644811</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0485135722844128</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0175103320335608</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0305913216751779</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0620388018067051</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0784425143607592</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1534765455236737</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2041961411766358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404369E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7179909176800464E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2278612234660917E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21599736679110962</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29219621463983192</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32566119031846791</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32486949761735934</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23979191624774709</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1251023963639476</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7607004002110143E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652984E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919506E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6854028043949602E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4525885285420115</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.32047851112512</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3233446613538247</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3947423390549298</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2196864772648461</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0556051133273463</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96441210835928715</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86589363926728224</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84775196904063221</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205088702616996</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7466925605326834</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75850602690186608</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68992108874775337</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63981541104594086</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83105253992241779</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90637345795416868</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95699804278388034</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0809418270973328</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0688997427423266</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0200750836989005</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0509758976212185</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1465546731624914</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1205200727944258</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1793673547606227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5877732240437152E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161986E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617172E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4876884199966002E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20329163933280905</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27233821947013459</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30669063554263482</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31823950787006627</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21923832342651159</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6513657308957266E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443796E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1868147977162798E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0803693883148939E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68288894397118394</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3572404371584697E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47501636742410852</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21639863042030691</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1909315862190484</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97757799130221756</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0235673005901196</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.036407751893754</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87924000909626054</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8246610744091567</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72768282011801522</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64651908497835686</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59253353209147952</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56649161645005486</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55467997716798922</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50892482745740708</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48459107734148904</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53171500275750638</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64048627745281594</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67655499276976017</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73020898173650228</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76926552214681387</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79216232383970908</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81877748006427487</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302872321241498</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80615472782578956</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79834737048656634</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93161702728938423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557376E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566775E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11366392708945414</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27506698905967086</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37789060410954922</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41972850768389469</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40423978088408541</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36496871356156407</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29565757929639619</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14748020130685707</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4370597033007828E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795623E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508729E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255462E-5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31979917336013219</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29496040261371415</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1115361471377785</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0274544194298818</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0444564291735914</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0565321742606231</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91476485794863471</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7612256071469139</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70628038423219119</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64011790591916518</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59253353209147952</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5392564425822638</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58241397602638867</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51963903435124725</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52455735176140561</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52158709794307767</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64670459082614429</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70445416772933789</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69510278069147802</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83271010129294298</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7770735176713337</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76366745736764097</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302872321241498</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84814195323338282</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90366851647070268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915473E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26158331312537325</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36698991360638916</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39974143588942351</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42529393613846489</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759560823708803</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28130526962181385</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14903262447850821</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6106485772048627E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938554E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0070564368656853E-5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52856009662446546</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31979917336013219</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56835146311346063</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.03594803408344E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75950872818990467</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.122878352720817</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0274544194298818</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0235673005901196</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99615890716001609</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92364607016172828</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.785013907370255</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68487794834636728</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64651908497835686</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58068286144964998</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55015051212938026</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54358637762462947</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53035324124508743</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50457421455144735</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51145919312864896</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62183133733283102</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66958019902986565</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73020898173650228</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79305723932661232</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71671829299783196</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80303175929380799</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302872321241498</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80615472782578956</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86419045258855132</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89435234619780879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153006E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4575980616256742E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27506698905967086</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35972278660428242</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38774919281274078</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.421083105087589</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36128216089932602</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30139850316622913</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15834716350841499</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6106485772048627E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158EC374-C7BE-45C5-97F9-D0502CCB1551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB06F56-3324-4966-9B3A-EEAFDEAF95AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="7155" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27870" yWindow="3960" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.05</v>
+            <v>0.1</v>
           </cell>
         </row>
       </sheetData>

--- a/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB06F56-3324-4966-9B3A-EEAFDEAF95AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BEE59F-C283-416D-B6A3-8D8974314D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27870" yWindow="3960" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23130" yWindow="5190" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0976501782938649E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6787604122206212E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.32911444893864367</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8894009220810396</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3922978469315401</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1544645675061791</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.89522315399158903</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.48554593440264804</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.11042801600844057</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.8916880764999678E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1351833226661785E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4678789341056113</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4455764753369735</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4188437606267812</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3673944500538529</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2315280935489707</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0556051133273463</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.90930284502447067</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86589363926728224</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.79123517110459007</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73730479120212744</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7321936758621459</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69349122459599177</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69668502099037843</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65314489877606463</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8646304203233236</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.96243779555958131</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0058244735381598</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0377041540134393</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.97639880346654828</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0621400356040098</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0620388018067051</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1011465672946699</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0655926182456794</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2662681072166684</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.62602830760249173</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.3572404371584697E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.58439242927966384</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7260928961748631E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0871963670720186E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.36029371252230469</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82163704230343659</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86781836356327502</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.11152136270159345</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7510413810611936E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2869828990777284E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4831693396692116</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3899773801317052</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3642728467565204</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3126986720516987</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1960032446965967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0451535775518279</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.94604235391434832</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.79167418447294369</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.81545665593432237</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76679698285021258</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.68869702185053305</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75128215997899117</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6696292920198782</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63315066718087898</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.88141936052377645</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.96243779555958131</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0253550458398717</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1349889184521995</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0380660963170671</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0095588457226232</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1394791311051107</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1465546731624914</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1205200727944258</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2166105343846423</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.58439242927966384</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63235182586110272</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6322346164396085E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59006614218529174</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.58439242927966384</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8169398907103823E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0976501782938649E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6618032363396047E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.33257881155905045</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83857801224783735</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1574374327480721</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2014684691360951</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2994779904694373</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1544645675061791</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86781836356327502</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.49050048475369551</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.11261470939474633</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.6807180333418054E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2502119591040791E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1998262777726981E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5902021786144127</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3482780587277541</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.33698738982139</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.136795163275973</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0242505060007914</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.90930284502447067</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82466060882598313</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84775196904063221</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75205088702616996</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7394431181974146</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73683442613324135</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.68992108874775337</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63315066718087898</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82265806982219136</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.89702940168659995</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.96676332893473615</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1133700819102526</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0688997427423266</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0726562735802871</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0731017059921917</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1124985937616252</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0985490909749271</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3035112868406882</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59006614218529174</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6322346164396085E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3536639344262295E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3830392246502697E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0296124749389844E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41531050282685161</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0679071339963691</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4679596544255566</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.56698642868654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7685490413678739</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4008900116504479</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2055940126649165</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63338865403365996</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.1333162551583334</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.1317342091182491E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9500077717838531E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1342205583038556</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0374297050554147</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0340118648818555</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0565321742606231</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.92364607016172828</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.785013907370255</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.72054867482274065</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6273155478007818</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59253353209147952</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56649161645005486</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57132037648302891</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5410674481389276</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.48958686164397858</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.51145919312864896</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.62804965070615937</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71840375520912669</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.68106030027346842</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.78512666693334621</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.78461792075552139</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76366745736764097</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82116563074435056</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86493684339642007</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83126891153755889</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.95024936783517189</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0465189323904138E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21639863042030691</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53395356699818453</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7352483074783018E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8772314162933162E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.422889344262295E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3171802139526378E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.050754271552932E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0571201932489309</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4679596544255566</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6001157993328381</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.62717896134705542</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.4292931161091531E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4737239462375422E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7935718204260761E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0888517359717014</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.94765213442561902</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.99223360771491176</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.95591006242627796</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84371516024388638</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.81673164100137641</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70628038423219119</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.64651908497835686</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59253353209147952</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56649161645005486</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53803957785294954</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5410674481389276</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.47459950873650986</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.49120338349979148</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59073977046618942</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73235334268891561</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73723022194550714</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82477952889967687</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.78461792075552139</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.77941317813810773</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.87302872321241498</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84814195323338282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80657775574931456</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.94093319756227811</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56092091886677975</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59705608246262531</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3305887978142075E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3830392246502697E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0084706783250365E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44591232935093544</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1218418377335595</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5829760861221172</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6506457719433489</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1367029262269213</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.62096926866045088</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.14025981011449659</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.2195393457443866E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4586859467861387E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7544628325866324E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0888517359717014</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0274544194298818</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0444564291735914</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0464699630771885</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.88812122130935411</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80880220759359611</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6777438030510925</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.61451318968239854</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.61623487337513871</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5392564425822638</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55467997716798922</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55713875847968786</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.49458264594646817</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.51652314553586332</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60939471058617434</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.67655499276976017</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70212402090048298</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83271010129294298</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76198471150295821</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.81090461967904137</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8557410257230601</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.79775728274427082</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.79834737048656634</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.93161702728938423</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.8949497119868334E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80847956176817082</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.32600886604673673</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BEE59F-C283-416D-B6A3-8D8974314D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8691FB09-1D7C-4E1E-98A1-F1DBAFB31256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23130" yWindow="5190" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="1620" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>1.7987704918032785E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0976501782938649E-5</v>
+        <v>1.0662887446283258E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6787604122206212E-2</v>
+        <v>1.6618032363396047E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32911444893864367</v>
+        <v>0.36375807514271147</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8894009220810396</v>
+        <v>0.88093043710883923</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0780054520692828</v>
+        <v>1.1347425811255609</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3026447612738716</v>
+        <v>1.2014684691360951</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3922978469315401</v>
+        <v>1.3127379699640236</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1544645675061791</v>
+        <v>1.1082859848059319</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89522315399158903</v>
+        <v>0.95003273484821704</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48554593440264804</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11042801600844057</v>
+        <v>0.11480140278105208</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8916880764999678E-4</v>
+        <v>7.3136281628162925E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2256979991216461E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1351833226661785E-5</v>
+        <v>3.1998262777726981E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,11 +13583,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4678789341056113</v>
+        <v>1.5443309619236123</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4455764753369735</v>
+        <v>1.3343782849264372</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13595,15 +13595,15 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3673944500538529</v>
+        <v>1.4220902280560073</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2315280935489707</v>
+        <v>1.172320012128347</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0556051133273463</v>
+        <v>1.0974112564294194</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13619,63 +13619,63 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73730479120212744</v>
+        <v>0.75942393493819138</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7321936758621459</v>
+        <v>0.7539420028679521</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69349122459599177</v>
+        <v>0.74405829305611626</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69668502099037843</v>
+        <v>0.64257356304937807</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65314489877606463</v>
+        <v>0.68646861810137405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8646304203233236</v>
+        <v>0.79747465952151197</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96243779555958131</v>
+        <v>0.94374968302444384</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0058244735381598</v>
+        <v>0.99605918738730392</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0377041540134393</v>
+        <v>1.0485135722844128</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97639880346654828</v>
+        <v>1.0072324498918077</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0621400356040098</v>
+        <v>1.1042049875091191</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0620388018067051</v>
+        <v>1.0841646101776783</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1011465672946699</v>
+        <v>1.0784425143607592</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0655926182456794</v>
+        <v>1.0985490909749271</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2662681072166684</v>
+        <v>1.2910968936326817</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,15 +13712,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13728,39 +13728,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,31 +13813,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13845,23 +13845,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3572404371584697E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.1746365548139341E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58439242927966384</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.55991531524049687</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.47501636742410852</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.8714480874316939E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871963670720186E-5</v>
+        <v>1.0558349334064794E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.7296319398636704E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36029371252230469</v>
+        <v>0.34297189942027079</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82163704230343659</v>
+        <v>0.80469607235903584</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0780054520692828</v>
+        <v>1.1687848585593277</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3026447612738716</v>
+        <v>1.2899977247566496</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2862180109748513</v>
+        <v>1.3790378674369541</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1198306304809937</v>
+        <v>1.1890985045313645</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86781836356327502</v>
+        <v>0.9134930142771317</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48059138405160062</v>
+        <v>0.47068228334950574</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11152136270159345</v>
+        <v>0.10824132262213482</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7510413810611936E-4</v>
+        <v>7.1729814673775183E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>1.2256979991216461E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3937551430922555E-5</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,51 +14257,51 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4831693396692116</v>
+        <v>1.5137501507964117</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3899773801317052</v>
+        <v>1.4038771539330224</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642728467565204</v>
+        <v>1.3097019328862598</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3126986720516987</v>
+        <v>1.3810683945543913</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1960032446965967</v>
+        <v>1.1249535469918484</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0451535775518279</v>
+        <v>1.0974112564294194</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94604235391434832</v>
+        <v>0.90011796780200126</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79167418447294369</v>
+        <v>0.79992079056120358</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81545665593432237</v>
+        <v>0.78316134282801253</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76679698285021258</v>
+        <v>0.73730479120212744</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68869702185053305</v>
+        <v>0.69594646418580197</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75128215997899117</v>
+        <v>0.69349122459599177</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14309,31 +14309,31 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63315066718087898</v>
+        <v>0.68646861810137405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88141936052377645</v>
+        <v>0.87302489042355003</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96243779555958131</v>
+        <v>0.90637345795416868</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0253550458398717</v>
+        <v>1.015589759689016</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1349889184521995</v>
+        <v>1.124179500181226</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0380660963170671</v>
+        <v>0.98667668560830146</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0095588457226232</v>
+        <v>1.0516237976277325</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14341,15 +14341,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1465546731624914</v>
+        <v>1.1692587260964022</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1205200727944258</v>
+        <v>1.0546071273359301</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2166105343846423</v>
+        <v>1.2662681072166684</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,15 +14386,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14402,15 +14402,15 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68288894397118394</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14418,23 +14418,23 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>9.3572404371584697E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,39 +14487,39 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.63235182586110272</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.40234803617951792</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58439242927966384</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.55991531524049687</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.47501636742410852</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.6968775715461277E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8169398907103823E-5</v>
+        <v>1.8351092896174861E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0976501782938649E-5</v>
+        <v>1.0662887446283258E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,19 +14858,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6618032363396047E-2</v>
+        <v>1.7635462916257033E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33257881155905045</v>
+        <v>0.34297189942027079</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83857801224783735</v>
+        <v>0.86398946716443847</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1574374327480721</v>
+        <v>1.1687848585593277</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14878,35 +14878,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2994779904694373</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1544645675061791</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86781836356327502</v>
+        <v>0.89522315399158903</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49050048475369551</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11261470939474633</v>
+        <v>0.10386793584952331</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6807180333418054E-4</v>
+        <v>7.3136281628162925E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2502119591040791E-4</v>
+        <v>1.2747259190865119E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1998262777726981E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,39 +14931,39 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5902021786144127</v>
+        <v>1.4525885285420115</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3482780587277541</v>
+        <v>1.3621778325290712</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.33698738982139</v>
+        <v>1.3506301182889553</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4084162835554688</v>
+        <v>1.4220902280560073</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.136795163275973</v>
+        <v>1.1960032446965967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0242505060007914</v>
+        <v>0.99289589867423644</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90930284502447067</v>
+        <v>0.89093309057953185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82466060882598313</v>
+        <v>0.86589363926728224</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84775196904063221</v>
+        <v>0.7750875145514351</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14971,27 +14971,27 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7394431181974146</v>
+        <v>0.71044534885633948</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73683442613324135</v>
+        <v>0.68626735767311697</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68992108874775337</v>
+        <v>0.65610142753462819</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63315066718087898</v>
+        <v>0.65980964264112651</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82265806982219136</v>
+        <v>0.87302489042355003</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89702940168659995</v>
+        <v>0.94374968302444384</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14999,31 +14999,31 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1133700819102526</v>
+        <v>1.091751245368306</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0688997427423266</v>
+        <v>1.0483439784588204</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0726562735802871</v>
+        <v>1.0305913216751779</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0731017059921917</v>
+        <v>1.1616049394760839</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1124985937616252</v>
+        <v>1.1806107525633576</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0985490909749271</v>
+        <v>1.1534765455236737</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3035112868406882</v>
+        <v>1.2041961411766358</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,15 +15060,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.169753768399932</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15076,39 +15076,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.64973899523471867</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.55991531524049687</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.43847664685302318</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.2502047927278952</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,35 +15161,35 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15205,11 +15205,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,27 +15262,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.169753768399932</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15290,27 +15290,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.2502047927278952</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3536639344262295E-5</v>
+        <v>2.1921379781420765E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,35 +26485,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0296124749389844E-2</v>
+        <v>2.1353214580087234E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41531050282685161</v>
+        <v>0.43279726084061382</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0679071339963691</v>
+        <v>1.0355463117540549</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4679596544255566</v>
+        <v>1.4534254004213432</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.56698642868654</v>
+        <v>1.6309450584288481</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7685490413678739</v>
+        <v>1.7011757445538596</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4008900116504479</v>
+        <v>1.4746210648952083</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2055940126649165</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26521,7 +26521,7 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1333162551583334</v>
+        <v>0.13609367714079867</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26562,95 +26562,95 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0374297050554147</v>
+        <v>1.0474049906809475</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0340118648818555</v>
+        <v>1.0131227362983837</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0565321742606231</v>
+        <v>0.95591006242627796</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92364607016172828</v>
+        <v>0.88812122130935411</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.785013907370255</v>
+        <v>0.80087277418581571</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72054867482274065</v>
+        <v>0.69914623893691652</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6273155478007818</v>
+        <v>0.67212380121512338</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59253353209147952</v>
+        <v>0.58068286144964998</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56649161645005486</v>
+        <v>0.52291533826158909</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57132037648302891</v>
+        <v>0.52694597830958978</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5410674481389276</v>
+        <v>0.53571034469200751</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48958686164397858</v>
+        <v>0.47959529303899939</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51145919312864896</v>
+        <v>0.49120338349979148</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62804965070615937</v>
+        <v>0.59695808383951776</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71840375520912669</v>
+        <v>0.72537854894902121</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68106030027346842</v>
+        <v>0.67403906006446357</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78512666693334621</v>
+        <v>0.81684895650641076</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78461792075552139</v>
+        <v>0.75444030841877052</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76366745736764097</v>
+        <v>0.7951588989085745</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82116563074435056</v>
+        <v>0.87302872321241498</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86493684339642007</v>
+        <v>0.80615472782578956</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83126891153755889</v>
+        <v>0.80657775574931456</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95024936783517189</v>
+        <v>0.90366851647070268</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,35 +26687,35 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21639863042030691</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.76304833522120519</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26723,19 +26723,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6097696728721933E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,19 +26788,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53395356699818453</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26808,7 +26808,7 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26816,27 +26816,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.59705608246262531</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.422889344262295E-5</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3171802139526378E-5</v>
+        <v>1.2776648075340586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,7 +27240,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.050754271552932E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27248,47 +27248,47 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0571201932489309</v>
+        <v>1.046333252501493</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4679596544255566</v>
+        <v>1.3952883844044894</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5190174563798093</v>
+        <v>1.56698642868654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6001157993328381</v>
+        <v>1.7011757445538596</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4303824329483521</v>
+        <v>1.4008900116504479</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>1.1941121649252506</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62717896134705542</v>
+        <v>0.63338865403365996</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.13470496614956604</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4292931161091531E-4</v>
+        <v>9.1317342091182491E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4737239462375422E-4</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7935718204260761E-5</v>
+        <v>3.9500077717838531E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888517359717014</v>
+        <v>1.1001939415547399</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27321,63 +27321,63 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99223360771491176</v>
+        <v>1.086234686340535</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95591006242627796</v>
+        <v>0.98609669597658145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84371516024388638</v>
+        <v>0.8614775846700734</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81673164100137641</v>
+        <v>0.83259050781693711</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70628038423219119</v>
+        <v>0.72054867482274065</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64651908497835686</v>
+        <v>0.63371672685997349</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59253353209147952</v>
+        <v>0.61623487337513871</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56649161645005486</v>
+        <v>0.55015051212938026</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53803957785294954</v>
+        <v>0.52694597830958978</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5410674481389276</v>
+        <v>0.50892482745740708</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47459950873650986</v>
+        <v>0.50956999885393695</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49120338349979148</v>
+        <v>0.52158709794307767</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59073977046618942</v>
+        <v>0.63426796407948771</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73235334268891561</v>
+        <v>0.67655499276976017</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73723022194550714</v>
+        <v>0.73020898173650228</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27385,15 +27385,15 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78461792075552139</v>
+        <v>0.73935150225039503</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77941317813810773</v>
+        <v>0.81090461967904137</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302872321241498</v>
+        <v>0.82116563074435056</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27401,11 +27401,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0.85596006732580321</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94093319756227811</v>
+        <v>0.92230085701649034</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,19 +27442,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.03594803408344E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,27 +27462,27 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27490,7 +27490,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27547,51 +27547,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22295616467546772</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.29806524895701642</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>6.7352483074783018E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,35 +27644,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.76304833522120519</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27680,19 +27680,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6097696728721933E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.5941897229587634E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27894,7 +27894,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3830392246502697E-5</v>
+        <v>1.2513212032550058E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,15 +27914,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0084706783250365E-2</v>
+        <v>2.1141796613947755E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44591232935093544</v>
+        <v>0.45028401885437597</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1218418377335595</v>
+        <v>1.0247593710066167</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27930,39 +27930,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5829760861221172</v>
+        <v>1.646934715864425</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6506457719433489</v>
+        <v>1.6674890961468525</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4303824329483521</v>
+        <v>1.4451286435973041</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1367029262269213</v>
+        <v>1.2055940126649165</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62096926866045088</v>
+        <v>0.58992080522742829</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14025981011449659</v>
+        <v>0.13887109912326395</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2195393457443866E-4</v>
+        <v>8.6049033893614271E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4586859467861387E-4</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7544628325866324E-5</v>
+        <v>4.0673347353021849E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,59 +27987,59 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888517359717014</v>
+        <v>1.1682471750529713</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0274544194298818</v>
+        <v>1.0374297050554147</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0444564291735914</v>
+        <v>1.0549009934653273</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0464699630771885</v>
+        <v>0.98609669597658145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88812122130935411</v>
+        <v>0.93252728237482185</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80880220759359611</v>
+        <v>0.83259050781693711</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6777438030510925</v>
+        <v>0.72054867482274065</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61451318968239854</v>
+        <v>0.64011790591916518</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61623487337513871</v>
+        <v>0.58660819677056475</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5392564425822638</v>
+        <v>0.57193865122361309</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55467997716798922</v>
+        <v>0.57686717625470885</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55713875847968786</v>
+        <v>0.56249586192660794</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49458264594646817</v>
+        <v>0.48958686164397858</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51652314553586332</v>
+        <v>0.53171500275750638</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28047,39 +28047,39 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67655499276976017</v>
+        <v>0.72537854894902121</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70212402090048298</v>
+        <v>0.67403906006446357</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83271010129294298</v>
+        <v>0.76926552214681387</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76198471150295821</v>
+        <v>0.74689590533458272</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81090461967904137</v>
+        <v>0.81877748006427487</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8557410257230601</v>
+        <v>0.89896026944644702</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79775728274427082</v>
+        <v>0.84814195323338282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79834737048656634</v>
+        <v>0.85596006732580321</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93161702728938423</v>
+        <v>0.97819787865385355</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28096,7 +28096,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,23 +28116,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.03594803408344E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7485140812169917</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28140,11 +28140,11 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28156,15 +28156,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,7 +28193,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28221,23 +28221,23 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28245,27 +28245,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.29806524895701642</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,15 +28318,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28338,7 +28338,7 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28350,23 +28350,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8691FB09-1D7C-4E1E-98A1-F1DBAFB31256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA917F46-34AD-4597-9A73-A9E9682F7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="1620" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="5310" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7987704918032785E-5</v>
+        <v>1.7624316939890707E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0662887446283258E-5</v>
+        <v>1.0976501782938649E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,27 +13510,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6618032363396047E-2</v>
+        <v>1.6278888845775719E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36375807514271147</v>
+        <v>0.34643626204067757</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88093043710883923</v>
+        <v>0.86398946716443847</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1347425811255609</v>
+        <v>1.1914797101818391</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014684691360951</v>
+        <v>1.3152917977910936</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3127379699640236</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13538,15 +13538,15 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95003273484821704</v>
+        <v>0.9134930142771317</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5004095854557904</v>
+        <v>0.49050048475369551</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11480140278105208</v>
+        <v>0.11042801600844057</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13554,11 +13554,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1998262777726981E-5</v>
+        <v>3.2967907104324765E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13587,95 +13587,95 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3343782849264372</v>
+        <v>1.4455764753369735</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4188437606267812</v>
+        <v>1.4324864890943465</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4220902280560073</v>
+        <v>1.3673944500538529</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.172320012128347</v>
+        <v>1.2433697098330956</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0974112564294194</v>
+        <v>1.0242505060007914</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90930284502447067</v>
+        <v>0.91848772224694009</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86589363926728224</v>
+        <v>0.78342757838468391</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79123517110459007</v>
+        <v>0.81545665593432237</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942393493819138</v>
+        <v>0.7741700307622339</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7539420028679521</v>
+        <v>0.72494423352687698</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74405829305611626</v>
+        <v>0.71516282536461651</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64257356304937807</v>
+        <v>0.6696292920198782</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68646861810137405</v>
+        <v>0.67980387423631217</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79747465952151197</v>
+        <v>0.8646304203233236</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94374968302444384</v>
+        <v>0.90637345795416868</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99605918738730392</v>
+        <v>1.0058244735381598</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0485135722844128</v>
+        <v>1.091751245368306</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0072324498918077</v>
+        <v>1.0586218606005735</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1042049875091191</v>
+        <v>1.0305913216751779</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0841646101776783</v>
+        <v>1.1062904185486513</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0784425143607592</v>
+        <v>1.1124985937616252</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0985490909749271</v>
+        <v>1.0436216364261808</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2910968936326817</v>
+        <v>1.2166105343846423</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0.169753768399932</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.63235182586110272</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.43847664685302318</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>9.3572404371584697E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13821,47 +13821,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68288894397118394</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6160738776629788E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,39 +13914,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68288894397118394</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47501636742410852</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13958,11 +13958,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8714480874316939E-5</v>
+        <v>1.8169398907103823E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0558349334064794E-5</v>
+        <v>9.931120660754014E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,27 +14184,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7296319398636704E-2</v>
+        <v>1.7805034675067194E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34297189942027079</v>
+        <v>0.36029371252230469</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80469607235903584</v>
+        <v>0.87245995213663885</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1687848585593277</v>
+        <v>1.0893528778805384</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2899977247566496</v>
+        <v>1.2520566152049835</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>1.3922978469315401</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14212,27 +14212,27 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9134930142771317</v>
+        <v>0.88608822384881769</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47068228334950574</v>
+        <v>0.47563683370055321</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10824132262213482</v>
+        <v>0.11261470939474633</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1729814673775183E-4</v>
+        <v>7.0323347719387431E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>1.2747259190865119E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3291121879857366E-5</v>
+        <v>3.264469232879217E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5137501507964117</v>
+        <v>1.4831693396692116</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14265,91 +14265,91 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3097019328862598</v>
+        <v>1.33698738982139</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810683945543913</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1249535469918484</v>
+        <v>1.2196864772648461</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0974112564294194</v>
+        <v>0.99289589867423644</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90011796780200126</v>
+        <v>0.88174821335706244</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79992079056120358</v>
+        <v>0.86589363926728224</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78316134282801253</v>
+        <v>0.84775196904063221</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73730479120212744</v>
+        <v>0.70043955164202099</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69594646418580197</v>
+        <v>0.71769479119160817</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69349122459599177</v>
+        <v>0.72238669228749153</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6696292920198782</v>
+        <v>0.66286535977725325</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68646861810137405</v>
+        <v>0.64648015491100275</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302489042355003</v>
+        <v>0.81426359972196483</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90637345795416868</v>
+        <v>0.98112590809471878</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.015589759689016</v>
+        <v>0.99605918738730392</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.124179500181226</v>
+        <v>1.1349889184521995</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98667668560830146</v>
+        <v>1.0380660963170671</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0516237976277325</v>
+        <v>1.0831725115565645</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1394791311051107</v>
+        <v>1.0620388018067051</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1692587260964022</v>
+        <v>1.1124985937616252</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0546071273359301</v>
+        <v>1.0765781091554287</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2662681072166684</v>
+        <v>1.2290249275926488</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,27 +14386,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58439242927966384</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.63235182586110272</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14414,19 +14414,19 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.43847664685302318</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.2502047927278952</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.740070139052604E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,27 +14487,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.58439242927966384</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14515,27 +14515,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.47501636742410852</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.740070139052604E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.169753768399932</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.59006614218529174</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47501636742410852</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6968775715461277E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8351092896174861E-5</v>
+        <v>1.7806010928961748E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0662887446283258E-5</v>
+        <v>1.0244734997409405E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,11 +14858,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7635462916257033E-2</v>
+        <v>1.712674763982654E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34297189942027079</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14870,39 +14870,39 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1687848585593277</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014684691360951</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2862180109748513</v>
+        <v>1.3657778879423679</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1198306304809937</v>
+        <v>1.166009213181241</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89522315399158903</v>
+        <v>0.90435808413436036</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5004095854557904</v>
+        <v>0.50536413580683781</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10386793584952331</v>
+        <v>0.10496128254267618</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3136281628162925E-4</v>
+        <v>6.8213647287805807E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2747259190865119E-4</v>
+        <v>1.2869828990777284E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,27 +14931,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4525885285420115</v>
+        <v>1.5749117730508124</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3621778325290712</v>
+        <v>1.4455764753369735</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3506301182889553</v>
+        <v>1.3642728467565204</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4220902280560073</v>
+        <v>1.2990247275511602</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1960032446965967</v>
+        <v>1.2315280935489707</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99289589867423644</v>
+        <v>1.013798970225273</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14959,71 +14959,71 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86589363926728224</v>
+        <v>0.84115382100250269</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7750875145514351</v>
+        <v>0.79930899938116751</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205088702616996</v>
+        <v>0.76679698285021258</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71044534885633948</v>
+        <v>0.7539420028679521</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68626735767311697</v>
+        <v>0.75128215997899117</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65610142753462819</v>
+        <v>0.64257356304937807</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65980964264112651</v>
+        <v>0.69313336196643593</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302489042355003</v>
+        <v>0.8058691296217384</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94374968302444384</v>
+        <v>0.934405626756875</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96676332893473615</v>
+        <v>0.94723275663302431</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.091751245368306</v>
+        <v>1.0485135722844128</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0483439784588204</v>
+        <v>1.0688997427423266</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0305913216751779</v>
+        <v>1.0726562735802871</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1616049394760839</v>
+        <v>1.0952275143631647</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1806107525633576</v>
+        <v>1.1579066996294469</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1534765455236737</v>
+        <v>1.0655926182456794</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2041961411766358</v>
+        <v>1.3035112868406882</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,11 +15060,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.169753768399932</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15072,43 +15072,43 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.740070139052604E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.6968775715461277E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.6322346164396085E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.169753768399932</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1921379781420765E-5</v>
+        <v>2.284438524590164E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3830392246502697E-5</v>
+        <v>1.3435238182316905E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,43 +26485,43 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1353214580087234E-2</v>
+        <v>2.0718960681668799E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43279726084061382</v>
+        <v>0.41968219233029214</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0355463117540549</v>
+        <v>1.0247593710066167</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4534254004213432</v>
+        <v>1.4970281624339834</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6309450584288481</v>
+        <v>1.6629243733000019</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7011757445538596</v>
+        <v>1.6674890961468525</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746210648952083</v>
+        <v>1.5483521181399686</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1826303171855848</v>
+        <v>1.1941121649252506</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63338865403365996</v>
+        <v>0.61475957597384634</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13609367714079867</v>
+        <v>0.14303723209696187</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26529,11 +26529,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5639519429459632E-4</v>
+        <v>1.4737239462375422E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9500077717838531E-5</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,75 +26558,75 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1342205583038556</v>
+        <v>1.1115361471377785</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0474049906809475</v>
+        <v>1.0075038481788161</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0131227362983837</v>
+        <v>1.0549009934653273</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95591006242627796</v>
+        <v>0.99615890716001609</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88812122130935411</v>
+        <v>0.8614775846700734</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80087277418581571</v>
+        <v>0.77708447396247471</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69914623893691652</v>
+        <v>0.69201209364164185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67212380121512338</v>
+        <v>0.65932144309674001</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58068286144964998</v>
+        <v>0.56290685548690556</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52291533826158909</v>
+        <v>0.56104458167649662</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52694597830958978</v>
+        <v>0.55467997716798922</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53571034469200751</v>
+        <v>0.5410674481389276</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47959529303899939</v>
+        <v>0.50956999885393695</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49120338349979148</v>
+        <v>0.51145919312864896</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59695808383951776</v>
+        <v>0.65292290419947263</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72537854894902121</v>
+        <v>0.71840375520912669</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67403906006446357</v>
+        <v>0.71616650131849258</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81684895650641076</v>
+        <v>0.75340437736028165</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26634,23 +26634,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7951588989085745</v>
+        <v>0.80303175929380799</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302872321241498</v>
+        <v>0.88167257195709225</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80615472782578956</v>
+        <v>0.88173173355945744</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0.83949929680030699</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90366851647070268</v>
+        <v>0.93161702728938423</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,7 +26687,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26695,15 +26695,15 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26711,31 +26711,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,19 +26788,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.22295616467546772</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0.53395356699818453</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26808,35 +26808,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>6.5963772083550379E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,19 +26889,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26917,7 +26917,7 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26925,19 +26925,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.284438524590164E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2776648075340586E-5</v>
+        <v>1.3040084118131113E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>2.1987468478505665E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>0.42405388183373272</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.046333252501493</v>
+        <v>1.1218418377335595</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3952883844044894</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.56698642868654</v>
+        <v>1.5350071138153862</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7011757445538596</v>
+        <v>1.6506457719433489</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4008900116504479</v>
+        <v>1.4746210648952083</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1941121649252506</v>
+        <v>1.1367029262269213</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63338865403365996</v>
+        <v>0.62717896134705542</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13470496614956604</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1317342091182491E-4</v>
+        <v>8.5170982527352896E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5338759440431562E-4</v>
+        <v>1.4436479473347352E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9500077717838531E-5</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27317,55 +27317,55 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94765213442561902</v>
+        <v>1.017479133804349</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.086234686340535</v>
+        <v>1.0026781720066478</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98609669597658145</v>
+        <v>0.95591006242627796</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8614775846700734</v>
+        <v>0.93252728237482185</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83259050781693711</v>
+        <v>0.80087277418581571</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72054867482274065</v>
+        <v>0.71341452952746587</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63371672685997349</v>
+        <v>0.61451318968239854</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61623487337513871</v>
+        <v>0.59253353209147952</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55015051212938026</v>
+        <v>0.56649161645005486</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52694597830958978</v>
+        <v>0.5324927780812696</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50892482745740708</v>
+        <v>0.53035324124508743</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50956999885393695</v>
+        <v>0.48958686164397858</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52158709794307767</v>
+        <v>0.51145919312864896</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27373,39 +27373,39 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67655499276976017</v>
+        <v>0.70445416772933789</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73020898173650228</v>
+        <v>0.68808154048247339</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82477952889967687</v>
+        <v>0.80891838411314465</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73935150225039503</v>
+        <v>0.7770735176713337</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81090461967904137</v>
+        <v>0.75579459698240747</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82116563074435056</v>
+        <v>0.88167257195709225</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84814195323338282</v>
+        <v>0.81455217290730808</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85596006732580321</v>
+        <v>0.82303852627481078</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92230085701649034</v>
+        <v>0.93161702728938423</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.52856009662446546</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.56835146311346063</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.5941897229587634E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,27 +27543,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.56092091886677975</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27571,27 +27571,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,43 +27644,43 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.29806524895701642</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27688,11 +27688,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3305887978142075E-5</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2513212032550058E-5</v>
+        <v>1.3830392246502697E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1141796613947755E-2</v>
+        <v>2.0084706783250365E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45028401885437597</v>
+        <v>0.45465570835781655</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.0894810154912453</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115624164381969</v>
+        <v>1.4679596544255566</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.646934715864425</v>
+        <v>1.5829760861221172</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6674890961468525</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451286435973041</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2055940126649165</v>
+        <v>1.1137392307475895</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58992080522742829</v>
+        <v>0.62096926866045088</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13887109912326395</v>
+        <v>0.14581465407942715</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5639519429459632E-4</v>
+        <v>1.4286099478833317E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0673347353021849E-5</v>
+        <v>3.715353844747188E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,19 +27987,19 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1682471750529713</v>
+        <v>1.0888517359717014</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0374297050554147</v>
+        <v>1.0274544194298818</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0549009934653273</v>
+        <v>1.0235673005901196</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98609669597658145</v>
+        <v>1.0263455407103197</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28007,11 +28007,11 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83259050781693711</v>
+        <v>0.7929433407780353</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72054867482274065</v>
+        <v>0.68487794834636728</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28019,67 +28019,67 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58660819677056475</v>
+        <v>0.5747575261287351</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57193865122361309</v>
+        <v>0.5555975469029385</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57686717625470885</v>
+        <v>0.52694597830958978</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56249586192660794</v>
+        <v>0.51428193090432717</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48958686164397858</v>
+        <v>0.50457421455144735</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53171500275750638</v>
+        <v>0.49120338349979148</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60939471058617434</v>
+        <v>0.65292290419947263</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72537854894902121</v>
+        <v>0.69747937398944349</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67403906006446357</v>
+        <v>0.70914526110948783</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76926552214681387</v>
+        <v>0.7771960945400801</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74689590533458272</v>
+        <v>0.73180709916620734</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81877748006427487</v>
+        <v>0.78728603852334111</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89896026944644702</v>
+        <v>0.87302872321241498</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84814195323338282</v>
+        <v>0.86493684339642007</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85596006732580321</v>
+        <v>0.82303852627481078</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97819787865385355</v>
+        <v>0.95024936783517189</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.32600886604673673</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>6.5963772083550379E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,7 +28217,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.03594803408344E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28225,47 +28225,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.52856009662446546</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75950872818990467</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2212971544097254E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.8949497119868334E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,7 +28294,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.03594803408344E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54053658-94C8-4F3E-9B94-627A4C1DE72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAEBBB8-2436-4295-8E8F-0B98E1DD29B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="8205" windowWidth="21600" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -8902,12 +8902,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1.0510100500999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>1.2762815625000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8992,9 +8992,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>0.46574635432544392</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>-1.21105469586402</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>-0.92413226448843389</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>-0.82414593425700411</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>-0.63537402146332134</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0.33045586721880954</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>-0.75781562250370704</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>-0.90949163526651555</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -9905,7 +9905,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9931,7 +9931,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -9957,7 +9957,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9983,7 +9983,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -10009,7 +10009,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -10035,7 +10035,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -10074,9 +10074,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>0.46118021359676309</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>-1.1990640553109109</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>-0.94299210662085098</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>-0.84062885294214418</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>-0.64172776167795464</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>0.33045586721880954</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>-0.76531874747899142</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>-0.91849650294242169</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -10987,7 +10987,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -11013,7 +11013,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -11039,7 +11039,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -11065,7 +11065,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -11091,7 +11091,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -11117,7 +11117,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -11156,9 +11156,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0.25217281624500004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0.21014401353750004</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>0.16811521083000003</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -12069,7 +12069,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -12095,7 +12095,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -12121,7 +12121,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -12147,7 +12147,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -12173,7 +12173,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -12199,7 +12199,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -12238,9 +12238,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>0.73017599728500004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>0.60847999773749994</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>0.48678399819000001</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -13151,7 +13151,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -13177,7 +13177,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -13203,7 +13203,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -13229,7 +13229,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -13255,7 +13255,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -13281,7 +13281,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -13320,9 +13320,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8714480874316939E-5</v>
+        <v>1.7260928961748631E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871963670720186E-5</v>
+        <v>1.0662887446283258E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34990062466108435</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8894009220810396</v>
+        <v>0.88093043710883923</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1347425811255609</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2773506882394274</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2729580314802651</v>
+        <v>1.3127379699640236</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1198306304809937</v>
+        <v>1.1313752761560556</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95916766499098838</v>
+        <v>0.88608822384881769</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49050048475369551</v>
+        <v>0.47068228334950574</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11480140278105208</v>
+        <v>0.10605462923582906</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2433048150969054E-4</v>
+        <v>6.6807180333418054E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1644130991655637E-4</v>
+        <v>1.2256979991216461E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0705403675596596E-5</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13577,37 +13577,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4984597452328119</v>
+        <v>1.5137501507964117</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4038771539330224</v>
+        <v>1.4455764753369735</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.391558303691651</v>
+        <v>1.2960592044186945</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4220902280560073</v>
+        <v>1.3947423390549298</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1841616284124719</v>
+        <v>1.2078448609807213</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99289589867423644</v>
+        <v>1.0765081848783828</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96441210835928715</v>
+        <v>0.93685747669187891</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13615,15 +13615,15 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7750875145514351</v>
+        <v>0.83160431248747735</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942393493819138</v>
+        <v>0.70043955164202099</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69594646418580197</v>
+        <v>0.71769479119160817</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71021288547562844</v>
+        <v>0.6696292920198782</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13639,46 +13639,46 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81426359972196483</v>
+        <v>0.8646304203233236</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91571751422173753</v>
+        <v>0.96243779555958131</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95699804278388034</v>
+        <v>1.0253550458398717</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.124179500181226</v>
+        <v>1.059322990555386</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97639880346654828</v>
+        <v>1.0586218606005735</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0411075596514552</v>
+        <v>1.0200750836989005</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1505420352905973</v>
+        <v>1.0841646101776783</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1011465672946699</v>
+        <v>1.1919627790303129</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0765781091554287</v>
+        <v>1.087563600065178</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1793673547606227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.2166105343846423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,19 +13712,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13732,35 +13732,35 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,43 +13813,43 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.58439242927966384</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13857,11 +13857,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,47 +13914,47 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.64973899523471867</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13994,9 +13994,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.7987704918032785E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0767425558501721E-5</v>
+        <v>1.0453811221846331E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,23 +14184,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7465891157446869E-2</v>
+        <v>1.712674763982654E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34643626204067757</v>
+        <v>0.35336498728149113</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82163704230343659</v>
+        <v>0.86398946716443847</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1574374327480721</v>
+        <v>1.1460900069368165</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3026447612738716</v>
+        <v>1.2394095786877612</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14208,31 +14208,31 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1544645675061791</v>
+        <v>1.1429199218311172</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95003273484821704</v>
+        <v>0.92262794441990303</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51527323650893264</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10605462923582906</v>
+        <v>0.11480140278105208</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2433048150969054E-4</v>
+        <v>6.7510413810611936E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1766700791567802E-4</v>
+        <v>1.2134410191304296E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2967907104324765E-5</v>
+        <v>3.264469232879217E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14251,81 +14251,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5443309619236123</v>
+        <v>1.4525885285420115</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.32047851112512</v>
+        <v>1.4177769277343395</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642728467565204</v>
+        <v>1.3779155752240857</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2990247275511602</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2315280935489707</v>
+        <v>1.1604783958442224</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0242505060007914</v>
+        <v>1.0765081848783828</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87256333613459303</v>
+        <v>0.90930284502447067</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80816739664946347</v>
+        <v>0.82466060882598313</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76701368627485766</v>
+        <v>0.80738282765774494</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74467783911414864</v>
+        <v>0.75205088702616996</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7321936758621459</v>
+        <v>0.76119144520322091</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70071509151886668</v>
+        <v>0.70793895844174171</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68315715650512843</v>
+        <v>0.65610142753462819</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67980387423631217</v>
+        <v>0.6664743865061884</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81426359972196483</v>
+        <v>0.85623595022309706</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91571751422173753</v>
+        <v>0.96243779555958131</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97652861508559219</v>
+        <v>1.0058244735381598</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1349889184521995</v>
+        <v>1.0377041540134393</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14333,26 +14333,26 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0621400356040098</v>
+        <v>1.1042049875091191</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1505420352905973</v>
+        <v>1.0841646101776783</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1919627790303129</v>
+        <v>1.1692587260964022</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1315055637041751</v>
+        <v>1.0546071273359301</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2166105343846423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.2290249275926488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,23 +14386,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.62602830760249173</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14410,15 +14410,15 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14426,11 +14426,11 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14491,51 +14491,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.169753768399932</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.59006614218529174</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.740070139052604E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,47 +14588,47 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58439242927966384</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14668,9 +14668,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9077868852459015E-5</v>
+        <v>1.7987704918032785E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,39 +14858,39 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7635462916257033E-2</v>
+        <v>1.7296319398636704E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32911444893864367</v>
+        <v>0.33257881155905045</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8894009220810396</v>
+        <v>0.81316655733123622</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1574374327480721</v>
+        <v>1.1347425811255609</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2141155056533173</v>
+        <v>1.2647036517222054</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2596980519856791</v>
+        <v>1.3392579289531956</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2121877958814882</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95003273484821704</v>
+        <v>0.92262794441990303</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52022778685998006</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14898,15 +14898,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>6.7510413810611936E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>1.2502119591040791E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1998262777726981E-5</v>
+        <v>3.361433665538996E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14925,93 +14925,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4525885285420115</v>
+        <v>1.5902021786144127</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4038771539330224</v>
+        <v>1.3621778325290712</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2960592044186945</v>
+        <v>1.3642728467565204</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3947423390549298</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1841616284124719</v>
+        <v>1.172320012128347</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99289589867423644</v>
+        <v>1.0347020417763095</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93685747669187891</v>
+        <v>0.9276725994694095</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78342757838468391</v>
+        <v>0.85764703317902247</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81545665593432237</v>
+        <v>0.83967814076405478</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7741700307622339</v>
+        <v>0.74467783911414864</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76119144520322091</v>
+        <v>0.69594646418580197</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69349122459599177</v>
+        <v>0.68626735767311697</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70344895323300349</v>
+        <v>0.71021288547562844</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64648015491100275</v>
+        <v>0.63981541104594086</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84784148012287064</v>
+        <v>0.79747465952151197</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89702940168659995</v>
+        <v>0.95309373929201247</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95699804278388034</v>
+        <v>0.94723275663302431</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.124179500181226</v>
+        <v>1.0701324088263593</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0688997427423266</v>
+        <v>0.98667668560830146</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0831725115565645</v>
+        <v>0.9990426077463459</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0841646101776783</v>
+        <v>1.1505420352905973</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15019,14 +15019,14 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0655926182456794</v>
+        <v>1.1315055637041751</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2290249275926488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.2538537140086619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,39 +15060,39 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47501636742410852</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15100,15 +15100,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.63235182586110272</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.64973899523471867</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>5.740070139052604E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6968775715461277E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15238,7 +15238,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,47 +15262,47 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.740070139052604E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.6968775715461277E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15342,9 +15342,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15896,9 +15896,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -16450,9 +16450,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17004,9 +17004,9 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17085,9 +17085,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17639,9 +17639,9 @@
       <selection activeCell="B2" sqref="B2:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>4.8458856352890702</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>3.8924856753356019</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>2.6693339237291323</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1.6347017949980405</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>2.5240903875403307</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>2.3397303165653396</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>2.0064828628031131</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1.510951693406084</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -18552,7 +18552,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -18578,7 +18578,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -18604,7 +18604,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -18630,7 +18630,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -18656,7 +18656,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -18682,7 +18682,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -18721,9 +18721,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>4.9382034250385516</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>3.8184692309591406</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>2.6944939553143232</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>1.6498988322089456</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>2.4759085412676742</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>2.3397303165653396</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>1.9686531670252012</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>1.5388707657960556</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -19634,7 +19634,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -19660,7 +19660,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -19686,7 +19686,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -19712,7 +19712,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -19738,7 +19738,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -19764,7 +19764,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -19803,9 +19803,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>4.7997267404143296</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>3.9294938975238329</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>2.6190138605587494</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>1.6195047577871349</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>2.4999994644040022</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>2.3842249614184965</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>1.968653167025201</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>1.4969921572110982</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -20716,7 +20716,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -20742,7 +20742,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -20768,7 +20768,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -20794,7 +20794,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -20820,7 +20820,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -20846,7 +20846,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -20885,9 +20885,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>0.73641241094255039</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>5.8389447227777773E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>-0.59814836674808813</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>-0.72947222968805092</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>-0.12689023775597563</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>0.42122512164164055</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>-0.52436262282163038</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>-0.90624189158622559</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -21798,7 +21798,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -21824,7 +21824,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -21850,7 +21850,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -21876,7 +21876,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -21902,7 +21902,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -21928,7 +21928,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -21967,9 +21967,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0.74377653505197594</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>5.8973341700055547E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>-0.61011133408304996</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>-0.74406167428181191</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>-0.12689023775597563</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>0.42964962407447338</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>-0.52960624904984666</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>-0.91530431050208783</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -22880,7 +22880,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -22906,7 +22906,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -22932,7 +22932,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -22958,7 +22958,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -22984,7 +22984,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -23010,7 +23010,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -23049,9 +23049,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0.7216841627236994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>5.7805552755499999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>-0.6041298504155691</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>-0.72217750739117037</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>-0.12815914013353541</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>0.41701287042522411</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23835,7 +23835,7 @@
         <v>-0.53484987527806305</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>-0.92436672941795006</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -23962,7 +23962,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -23988,7 +23988,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -24014,7 +24014,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -24040,7 +24040,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -24066,7 +24066,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -24092,7 +24092,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -24131,9 +24131,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>0.25217281624500004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>0.21014401353750004</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>0.16811521083000003</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -25018,7 +25018,7 @@
         <v>0.12608640812250002</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -25044,7 +25044,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -25070,7 +25070,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -25096,7 +25096,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -25122,7 +25122,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -25148,7 +25148,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -25174,7 +25174,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -25213,9 +25213,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>0.73017599728500004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>0.60847999773749994</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>0.48678399819000001</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>0.36508799864250002</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -26126,7 +26126,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -26152,7 +26152,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -26178,7 +26178,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -26204,7 +26204,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -26230,7 +26230,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26256,7 +26256,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -26295,9 +26295,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3536639344262295E-5</v>
+        <v>2.1921379781420765E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0718960681668799E-2</v>
+        <v>2.2198886444645145E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45465570835781655</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1326287784809976</v>
+        <v>1.1218418377335595</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4243568924129162</v>
+        <v>1.3807541304002759</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>1.6789140307355788</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6674890961468525</v>
+        <v>1.7685490413678739</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483521181399686</v>
+        <v>1.5041134861931125</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1137392307475895</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60234019060063737</v>
+        <v>0.63338865403365996</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13887109912326395</v>
+        <v>0.14303723209696187</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8683187992398386E-4</v>
+        <v>9.1317342091182491E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4887619456889457E-4</v>
+        <v>1.4737239462375422E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9500077717838531E-5</v>
+        <v>3.9891167596232968E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26552,33 +26552,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1569049694699327</v>
+        <v>1.0775095303886628</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98755327692775052</v>
+        <v>1.0075038481788161</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0966792506322711</v>
+        <v>1.0549009934653273</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9659722736097125</v>
+        <v>1.0062211183434506</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8614775846700734</v>
+        <v>0.89700243352244757</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.785013907370255</v>
+        <v>0.7612256071469139</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26586,27 +26586,27 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62091436874159012</v>
+        <v>0.67212380121512338</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5747575261287351</v>
+        <v>0.58660819677056475</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56649161645005486</v>
+        <v>0.57193865122361309</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5491331773963094</v>
+        <v>0.54358637762462947</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53035324124508743</v>
+        <v>0.53571034469200751</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52455735176140561</v>
+        <v>0.49458264594646817</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26614,46 +26614,46 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292290419947263</v>
+        <v>0.6031763972128461</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66260540528997125</v>
+        <v>0.66958019902986565</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70212402090048298</v>
+        <v>0.70914526110948783</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83271010129294298</v>
+        <v>0.76926552214681387</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78461792075552139</v>
+        <v>0.71671829299783196</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78728603852334111</v>
+        <v>0.75579459698240747</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8557410257230601</v>
+        <v>0.89896026944644702</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81455217290730808</v>
+        <v>0.84814195323338282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0.83949929680030699</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89435234619780879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.90366851647070268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,11 +26687,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26699,11 +26699,11 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26711,31 +26711,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26754,7 +26754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.22295616467546772</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53395356699818453</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56835146311346063</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26855,7 +26855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26969,9 +26969,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27050,9 +27050,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2152131147540982E-5</v>
+        <v>2.1921379781420765E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3435238182316905E-5</v>
+        <v>1.3171802139526378E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0930378647808275E-2</v>
+        <v>2.2198886444645145E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45028401885437597</v>
+        <v>0.41968219233029214</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.1218418377335595</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4098226384087029</v>
+        <v>1.4970281624339834</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>1.6789140307355788</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7348623929608666</v>
+        <v>1.7685490413678739</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483521181399686</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1711484694459189</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62717896134705542</v>
+        <v>0.65201773209347347</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13470496614956604</v>
+        <v>0.14442594308819451</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5170982527352896E-4</v>
+        <v>8.6049033893614271E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5037999451403492E-4</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>3.9108987839444087E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27307,29 +27307,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0775095303886628</v>
+        <v>1.1795893806360098</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96760270567668472</v>
+        <v>0.94765213442561902</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0235673005901196</v>
+        <v>1.0444564291735914</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98609669597658145</v>
+        <v>0.9659722736097125</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87924000909626054</v>
+        <v>0.8614775846700734</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27337,23 +27337,23 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72054867482274065</v>
+        <v>0.68487794834636728</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67212380121512338</v>
+        <v>0.63371672685997349</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58068286144964998</v>
+        <v>0.61623487337513871</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52836237303514733</v>
+        <v>0.54470347735582203</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5324927780812696</v>
+        <v>0.52694597830958978</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27361,43 +27361,43 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48459107734148904</v>
+        <v>0.52455735176140561</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50133128831422025</v>
+        <v>0.48613943109257712</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64670459082614429</v>
+        <v>0.64048627745281594</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70445416772933789</v>
+        <v>0.69050458024954908</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68808154048247339</v>
+        <v>0.66701781985545883</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7771960945400801</v>
+        <v>0.79305723932661232</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73180709916620734</v>
+        <v>0.79216232383970908</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77941317813810773</v>
+        <v>0.75579459698240747</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89031642070176975</v>
+        <v>0.82980947948902806</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79775728274427082</v>
+        <v>0.83974450815186408</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27405,10 +27405,10 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90366851647070268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.91298468674359656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27446,31 +27446,31 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.21639863042030691</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.52856009662446546</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75950872818990467</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27478,19 +27478,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,27 +27543,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27571,23 +27571,23 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27610,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,19 +27644,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0993734239252833E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,35 +27664,35 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31979917336013219</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6097696728721933E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.5941897229587634E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27724,9 +27724,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.261363387978142E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3435238182316905E-5</v>
+        <v>1.3171802139526378E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0296124749389844E-2</v>
+        <v>2.1141796613947755E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43279726084061382</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.0679071339963691</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4388911464171297</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5350071138153862</v>
+        <v>1.6629243733000019</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.684332420350356</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746210648952083</v>
+        <v>1.4451286435973041</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0907755352682578</v>
+        <v>1.1367029262269213</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60234019060063737</v>
+        <v>0.63959834672026439</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1333162551583334</v>
+        <v>0.14303723209696187</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5789899423973667E-4</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0282257474627412E-5</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27981,41 +27981,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1682471750529713</v>
+        <v>1.1342205583038556</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0075038481788161</v>
+        <v>1.0374297050554147</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0966792506322711</v>
+        <v>0.99223360771491176</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.036407751893754</v>
+        <v>1.0565321742606231</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88812122130935411</v>
+        <v>0.84371516024388638</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8246610744091567</v>
+        <v>0.81673164100137641</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72768282011801522</v>
+        <v>0.70628038423219119</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63371672685997349</v>
+        <v>0.64011790591916518</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28023,47 +28023,47 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52291533826158909</v>
+        <v>0.53380940780870556</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54358637762462947</v>
+        <v>0.5491331773963094</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55713875847968786</v>
+        <v>0.53035324124508743</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48459107734148904</v>
+        <v>0.49458264594646817</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51145919312864896</v>
+        <v>0.53171500275750638</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62183133733283102</v>
+        <v>0.64670459082614429</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66260540528997125</v>
+        <v>0.67655499276976017</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73020898173650228</v>
+        <v>0.70212402090048298</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81684895650641076</v>
+        <v>0.75340437736028165</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73180709916620734</v>
+        <v>0.7770735176713337</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77941317813810773</v>
+        <v>0.77154031775287435</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28071,18 +28071,18 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84814195323338282</v>
+        <v>0.80615472782578956</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81480814101206267</v>
+        <v>0.85596006732580321</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91298468674359656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.92230085701649034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,39 +28116,39 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0.22295616467546772</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75950872818990467</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28156,15 +28156,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28193,7 +28193,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.03594803408344E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,27 +28318,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.80847956176817082</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28346,27 +28346,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28398,9 +28398,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28952,9 +28952,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29031,7 +29031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29185,7 +29185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -29506,9 +29506,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30060,9 +30060,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -30370,7 +30370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -30524,7 +30524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30614,9 +30614,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30651,7 +30651,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30709,12 +30709,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>1.1499807390750001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>-2.50089924735</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -31107,9 +31107,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>4.7054855667588127</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31388,7 +31388,7 @@
         <v>3.5476311662590021</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31489,7 +31489,7 @@
         <v>2.4029551202849815</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>1.2759638395653969</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>2.3371715809520248</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>2.2943934568399658</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>2.0318444501176551</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>1.5894259595811866</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -32020,7 +32020,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -32046,7 +32046,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -32072,7 +32072,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -32098,7 +32098,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -32124,7 +32124,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -32150,7 +32150,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -32189,9 +32189,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>4.7502404609482518</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>3.5811908433564672</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -32571,7 +32571,7 @@
         <v>2.4479476073864808</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -32672,7 +32672,7 @@
         <v>1.2991831548785546</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -32773,7 +32773,7 @@
         <v>2.3593933160224698</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>2.2943934568399658</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -32975,7 +32975,7 @@
         <v>2.0318444501176551</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>1.6041702384379233</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -33102,7 +33102,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -33128,7 +33128,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -33154,7 +33154,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -33180,7 +33180,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -33206,7 +33206,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -33232,7 +33232,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -33271,9 +33271,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>4.6607306725693745</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33552,7 +33552,7 @@
         <v>3.5811908433564672</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33653,7 +33653,7 @@
         <v>2.4029551202849815</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33754,7 +33754,7 @@
         <v>1.2991831548785546</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33855,7 +33855,7 @@
         <v>2.2927281108111339</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>2.2943934568399658</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>1.993507522593452</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>1.6041702384379233</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -34184,7 +34184,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -34210,7 +34210,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -34236,7 +34236,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -34262,7 +34262,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -34288,7 +34288,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -34314,7 +34314,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -34353,9 +34353,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -34533,7 +34533,7 @@
         <v>0.45661407286808225</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>-1.1990640553109109</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>-0.94299210662085098</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34836,7 +34836,7 @@
         <v>-0.824145934257004</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -34937,7 +34937,7 @@
         <v>-0.63537402146332134</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0.3337938052715248</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -35139,7 +35139,7 @@
         <v>-0.75031249752842288</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -35240,7 +35240,7 @@
         <v>-0.90048676759060953</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -35266,7 +35266,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -35292,7 +35292,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -35318,7 +35318,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -35344,7 +35344,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -35370,7 +35370,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -35396,7 +35396,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
